--- a/Labs/Lab08/Lab8Rubric_CS295N.xlsx
+++ b/Labs/Lab08/Lab8Rubric_CS295N.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab08/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D12C35-F4E0-C64E-83F4-A57493577E7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8509BC85-5E75-A445-B5EB-07CD9D080C30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33580" yWindow="8740" windowWidth="23520" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23520" windowHeight="14740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
@@ -102,7 +102,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -283,6 +283,13 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -626,7 +633,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -646,6 +653,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,8 +1011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1073,11 +1081,11 @@
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
+      <c r="B11" s="13">
+        <v>10</v>
+      </c>
+      <c r="C11" s="13">
+        <v>10</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -1085,22 +1093,22 @@
       <c r="A12" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B12">
-        <v>7</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
+      <c r="B12" s="13">
+        <v>10</v>
+      </c>
+      <c r="C12" s="13">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13">
-        <v>6</v>
+      <c r="B13" s="13">
+        <v>8</v>
+      </c>
+      <c r="C13" s="13">
+        <v>8</v>
       </c>
       <c r="F13" s="6"/>
     </row>
@@ -1108,11 +1116,11 @@
       <c r="A14" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B14">
-        <v>5</v>
-      </c>
-      <c r="C14">
-        <v>5</v>
+      <c r="B14" s="13">
+        <v>7</v>
+      </c>
+      <c r="C14" s="13">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1120,11 +1128,11 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <f>SUM(B7:B14)</f>
+        <f>SUM(B11:B14)</f>
         <v>35</v>
       </c>
       <c r="C15" s="3">
-        <f>SUM(C7:C14)</f>
+        <f>SUM(C11:C14)</f>
         <v>35</v>
       </c>
       <c r="D15" s="12"/>
@@ -1424,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C8BAC4-7C35-B64C-9C0F-AC9B3324E891}">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1495,10 +1503,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6"/>
     </row>
@@ -1507,10 +1515,10 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F12" s="6"/>
     </row>
@@ -1519,10 +1527,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1530,10 +1538,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F14" s="6"/>
     </row>
@@ -1542,11 +1550,11 @@
         <v>4</v>
       </c>
       <c r="B15" s="3">
-        <f>SUM(B7:B14)</f>
+        <f>SUM(B11:B14)</f>
         <v>35</v>
       </c>
       <c r="C15" s="3">
-        <f>SUM(C7:C14)</f>
+        <f>SUM(C11:C14)</f>
         <v>35</v>
       </c>
       <c r="F15" s="6"/>

--- a/Labs/Lab08/Lab8Rubric_CS295N.xlsx
+++ b/Labs/Lab08/Lab8Rubric_CS295N.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS295N-CourseMaterials/Labs/Lab06/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/birdb/Projects/CS295N-CourseMaterials/Labs/Lab08/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3523C88A-6070-AE4C-92D8-A85978F47E8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C40AE1E-679D-394D-B2E4-063121ECAD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14260" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="14260" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab3Rubric_CS295N" sheetId="1" r:id="rId1"/>
     <sheet name="Student Score" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>Actual</t>
   </si>
@@ -93,6 +106,9 @@
   </si>
   <si>
     <t>Conterollers: debugging, action methods, and return types</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -618,7 +634,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -636,6 +652,9 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -695,9 +714,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -735,7 +754,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -841,7 +860,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -983,7 +1002,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1322,38 +1341,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32FE8FBD-3C9C-F84F-8CF1-73E172DCB999}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="32.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="4" max="4" width="1" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="19">
+    <row r="1" spans="1:5" ht="19">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1363,8 +1386,11 @@
       <c r="C6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1374,8 +1400,9 @@
       <c r="C7">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1385,8 +1412,9 @@
       <c r="C8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1396,8 +1424,9 @@
       <c r="C9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1407,8 +1436,9 @@
       <c r="C10">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1418,13 +1448,15 @@
       <c r="C11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1434,8 +1466,9 @@
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1445,8 +1478,9 @@
       <c r="C14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1456,8 +1490,9 @@
       <c r="C15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1469,17 +1504,20 @@
         <f>SUM(C7:C15)</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:5">
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1489,8 +1527,9 @@
       <c r="C19">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="6" t="s">
         <v>18</v>
       </c>
@@ -1500,8 +1539,9 @@
       <c r="C20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1513,18 +1553,21 @@
         <f>SUM(C19:C20)</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -1534,8 +1577,9 @@
       <c r="C24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1545,8 +1589,9 @@
       <c r="C25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1558,11 +1603,12 @@
         <f>SUM(C24:C25)</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:5">
       <c r="A28" s="9" t="s">
         <v>2</v>
       </c>
